--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50_no_assign.xlsx
@@ -49,34 +49,34 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>Total time online (min)</t>
+  </si>
+  <si>
     <t>Days with no interaction</t>
   </si>
   <si>
-    <t>Total time online (min)</t>
+    <t>Largest period of inactivity (h)</t>
   </si>
   <si>
     <t>Resources viewed</t>
   </si>
   <si>
-    <t>Largest period of inactivity (h)</t>
+    <t>Clicks on course</t>
   </si>
   <si>
-    <t>Clicks on course</t>
+    <t>Number of sessions</t>
   </si>
   <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
@@ -94,10 +94,10 @@
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Average session duration (min)</t>
+    <t>Start of Session 1 (%)</t>
   </si>
   <si>
     <t>Assignments viewed</t>
@@ -109,13 +109,19 @@
     <t>Number of days</t>
   </si>
   <si>
+    <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
     <t>Clicks on forum</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Forum posts</t>
@@ -124,25 +130,19 @@
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
+    <t>Start of Session 7 (%)</t>
   </si>
   <si>
     <t>Assignments submitted</t>
   </si>
   <si>
+    <t>Files downloaded</t>
+  </si>
+  <si>
     <t>Discussions viewed</t>
   </si>
   <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
     <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -645,10 +645,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -706,7 +706,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -738,7 +738,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -770,7 +770,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -834,13 +834,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -1029,25 +1029,25 @@
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1058,28 +1058,28 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1122,7 +1122,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1250,19 +1250,19 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1314,7 +1314,7 @@
         <v>34</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1352,13 +1352,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>37</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1740,16 +1740,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1804,16 +1804,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1836,13 +1836,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -1863,12 +1863,12 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1895,21 +1895,21 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1964,13 +1964,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -2188,16 +2188,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2252,31 +2252,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2284,10 +2284,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -2296,27 +2296,27 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2540,13 +2540,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2850,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2868,12 +2868,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2937,13 +2937,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -2952,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -2969,16 +2969,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -2996,18 +2996,18 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -3028,12 +3028,12 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3042,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3051,21 +3051,21 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3083,30 +3083,30 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3129,16 +3129,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3147,13 +3147,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -3161,13 +3161,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -3179,13 +3179,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -3193,13 +3193,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -3220,36 +3220,36 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -3257,22 +3257,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -3289,16 +3289,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -3316,53 +3316,53 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -3380,18 +3380,18 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -3412,18 +3412,18 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -3444,18 +3444,18 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -3476,18 +3476,18 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3508,27 +3508,27 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -3545,22 +3545,22 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -3572,27 +3572,27 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3604,27 +3604,27 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -3636,18 +3636,18 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3668,18 +3668,18 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3732,18 +3732,18 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3764,18 +3764,18 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3951,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3969,12 +3969,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4038,10 +4038,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -4053,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -4070,16 +4070,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4166,16 +4166,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -4198,16 +4198,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -4216,13 +4216,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -4242,19 +4242,19 @@
         <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -4289,15 +4289,15 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -4309,16 +4309,16 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -4449,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4486,10 +4486,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -4501,16 +4501,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -4518,13 +4518,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -4545,18 +4545,18 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -4565,16 +4565,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4614,13 +4614,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -4629,16 +4629,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -4646,22 +4646,22 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -4673,21 +4673,21 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -4710,16 +4710,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -4742,16 +4742,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4783,13 +4783,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -4806,16 +4806,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50_no_assign.xlsx
@@ -49,76 +49,82 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>Total time online (min)</t>
+    <t>Days with no interaction</t>
   </si>
   <si>
-    <t>Days with no interaction</t>
+    <t>Resources viewed</t>
   </si>
   <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
-    <t>Resources viewed</t>
+    <t>Total time online (min)</t>
   </si>
   <si>
     <t>Clicks on course</t>
   </si>
   <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
     <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Number of clicks</t>
   </si>
   <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Start of Session 1 (%)</t>
   </si>
   <si>
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Links viewed</t>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
     <t>Clicks per session</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Number of clicks</t>
-  </si>
-  <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Number of days</t>
-  </si>
-  <si>
     <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
     <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Assignments submitted</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
@@ -127,25 +133,19 @@
     <t>Forum posts</t>
   </si>
   <si>
-    <t>Start of Session 6 (%)</t>
+    <t>Submissions (% of course total)</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Files downloaded</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
-    <t>Assignments submitted</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
     <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Submissions (% of course total)</t>
   </si>
 </sst>
 </file>
@@ -709,10 +709,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -738,7 +738,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -770,10 +770,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -802,19 +802,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -840,13 +840,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -878,19 +878,19 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -901,25 +901,25 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -994,10 +994,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1067,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1122,7 +1122,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1160,10 +1160,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1189,28 +1189,28 @@
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1250,7 +1250,7 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1314,13 +1314,13 @@
         <v>34</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>37</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1740,16 +1740,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1804,16 +1804,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1836,13 +1836,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -1863,24 +1863,24 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -1895,18 +1895,18 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -1932,16 +1932,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -1950,24 +1950,24 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1979,16 +1979,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -1996,31 +1996,31 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2060,31 +2060,31 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2092,13 +2092,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -2107,16 +2107,16 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2124,31 +2124,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2188,16 +2188,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -2220,31 +2220,31 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2261,10 +2261,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -2311,12 +2311,12 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2395,24 +2395,24 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2421,13 +2421,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2540,13 +2540,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -2969,22 +2969,22 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -2996,21 +2996,21 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -3028,12 +3028,12 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3042,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3051,30 +3051,30 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3083,13 +3083,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -3097,13 +3097,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -3112,16 +3112,16 @@
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -3129,16 +3129,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3147,13 +3147,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -3161,22 +3161,22 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -3193,10 +3193,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -3205,10 +3205,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -3220,12 +3220,12 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -3240,30 +3240,30 @@
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -3272,16 +3272,16 @@
         <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -3289,16 +3289,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -3348,18 +3348,18 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -3368,30 +3368,30 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -3412,12 +3412,12 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3444,18 +3444,18 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -3476,18 +3476,18 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3508,15 +3508,15 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -3528,16 +3528,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -3545,13 +3545,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -3572,12 +3572,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3951,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3969,12 +3969,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4047,13 +4047,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -4070,16 +4070,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4111,13 +4111,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -4129,12 +4129,12 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4143,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -4152,27 +4152,27 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -4193,18 +4193,18 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -4230,16 +4230,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -4248,21 +4248,21 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4274,19 +4274,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4358,31 +4358,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -4390,10 +4390,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -4402,33 +4402,33 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -4449,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -4481,18 +4481,18 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4513,12 +4513,12 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4550,13 +4550,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -4565,16 +4565,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -4582,10 +4582,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -4597,16 +4597,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -4614,13 +4614,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -4629,16 +4629,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -4646,16 +4646,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4710,16 +4710,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -4742,13 +4742,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4783,13 +4783,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -4865,12 +4865,12 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50_no_assign.xlsx
@@ -52,13 +52,19 @@
     <t>Days with no interaction</t>
   </si>
   <si>
+    <t>Total time online (min)</t>
+  </si>
+  <si>
     <t>Resources viewed</t>
+  </si>
+  <si>
+    <t>Number of sessions</t>
   </si>
   <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
-    <t>Total time online (min)</t>
+    <t>Start of Session 1 (%)</t>
   </si>
   <si>
     <t>Clicks on course</t>
@@ -67,49 +73,43 @@
     <t>Links viewed</t>
   </si>
   <si>
-    <t>Number of sessions</t>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Clicks (% of course total)</t>
+  </si>
+  <si>
+    <t>Clicks per session</t>
+  </si>
+  <si>
+    <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Days with no interaction (%)</t>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Clicks (% of course total)</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Clicks per session</t>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Number of days</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Clicks per day</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
@@ -118,34 +118,34 @@
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Quizzes started</t>
   </si>
   <si>
-    <t>Assignments submitted</t>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
   </si>
   <si>
-    <t>Forum posts</t>
+    <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
+    <t>Discussions viewed</t>
   </si>
   <si>
     <t>Files downloaded</t>
   </si>
   <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
+    <t>Submissions (% of course total)</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -712,13 +712,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -773,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -837,10 +837,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -878,19 +878,19 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -901,25 +901,25 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -962,19 +962,19 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -994,28 +994,28 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1026,10 +1026,10 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1125,28 +1125,28 @@
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1154,16 +1154,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1189,25 +1189,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1282,10 +1282,10 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1320,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>38</v>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1767,21 +1767,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1804,16 +1804,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1836,13 +1836,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -1863,12 +1863,12 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -1895,24 +1895,24 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -1932,22 +1932,22 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -1964,10 +1964,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1982,33 +1982,33 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -2023,12 +2023,12 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2092,13 +2092,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -2107,16 +2107,16 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2156,39 +2156,39 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2232,19 +2232,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2252,31 +2252,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2284,13 +2284,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -2299,30 +2299,30 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2343,12 +2343,12 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2375,12 +2375,12 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2412,13 +2412,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2439,12 +2439,12 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2540,13 +2540,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -2567,12 +2567,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2850,13 +2850,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3001,13 +3001,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -3060,21 +3060,21 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3083,13 +3083,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3129,16 +3129,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3147,13 +3147,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -3161,22 +3161,22 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -3220,12 +3220,12 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -3240,62 +3240,62 @@
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -3316,18 +3316,18 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -3348,18 +3348,18 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -3368,16 +3368,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -3400,16 +3400,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3444,18 +3444,18 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -3476,18 +3476,18 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3508,12 +3508,12 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3545,22 +3545,22 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -3572,12 +3572,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3586,13 +3586,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3951,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3969,21 +3969,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4070,16 +4070,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4111,13 +4111,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -4129,12 +4129,12 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4143,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -4152,36 +4152,36 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -4198,16 +4198,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -4216,13 +4216,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -4230,13 +4230,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -4257,12 +4257,12 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4271,30 +4271,30 @@
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4306,19 +4306,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4358,31 +4358,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -4390,10 +4390,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -4402,33 +4402,33 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -4449,18 +4449,18 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -4481,18 +4481,18 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4513,12 +4513,12 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4550,13 +4550,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -4565,16 +4565,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -4582,13 +4582,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -4614,13 +4614,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -4629,16 +4629,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -4646,13 +4646,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -4678,16 +4678,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4751,13 +4751,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4815,13 +4815,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -4865,12 +4865,12 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50_no_assign.xlsx
@@ -58,13 +58,7 @@
     <t>Resources viewed</t>
   </si>
   <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
     <t>Largest period of inactivity (h)</t>
-  </si>
-  <si>
-    <t>Start of Session 1 (%)</t>
   </si>
   <si>
     <t>Clicks on course</t>
@@ -73,7 +67,13 @@
     <t>Links viewed</t>
   </si>
   <si>
+    <t>Number of sessions</t>
+  </si>
+  <si>
     <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 1 (%)</t>
   </si>
   <si>
     <t>Start of Session 2 (%)</t>
@@ -88,9 +88,6 @@
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
     <t>Clicks on folder</t>
   </si>
   <si>
@@ -100,16 +97,19 @@
     <t>Start of Session 10 (%)</t>
   </si>
   <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
     <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Average session duration (min)</t>
+    <t>Number of days</t>
   </si>
   <si>
     <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Number of days</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
@@ -118,22 +118,16 @@
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
-    <t>Start of Session 7 (%)</t>
+    <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
   </si>
   <si>
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
+    <t>Start of Session 7 (%)</t>
   </si>
   <si>
     <t>Assignments submitted</t>
@@ -143,6 +137,12 @@
   </si>
   <si>
     <t>Files downloaded</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -712,13 +712,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -770,13 +770,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -802,7 +802,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -962,10 +962,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -997,16 +997,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -1058,7 +1058,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1067,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1122,10 +1122,10 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1154,13 +1154,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1186,13 +1186,13 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1282,13 +1282,13 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1320,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1352,13 +1352,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>38</v>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1717,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1735,18 +1735,18 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1767,21 +1767,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1842,10 +1842,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1868,13 +1868,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1895,24 +1895,24 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1941,25 +1941,25 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1967,16 +1967,16 @@
         <v>25</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -1991,12 +1991,12 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2011,19 +2011,19 @@
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2060,13 +2060,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2075,16 +2075,16 @@
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2124,13 +2124,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2139,65 +2139,65 @@
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -2220,16 +2220,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -2252,31 +2252,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2296,19 +2296,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -2316,13 +2316,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2331,24 +2331,24 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2375,12 +2375,12 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -2439,12 +2439,12 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2540,13 +2540,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2850,13 +2850,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3001,13 +3001,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -3060,21 +3060,21 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3083,13 +3083,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3129,16 +3129,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3147,13 +3147,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -3161,22 +3161,22 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -3220,12 +3220,12 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -3240,62 +3240,62 @@
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -3316,18 +3316,18 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -3348,21 +3348,21 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -3400,16 +3400,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -3417,13 +3417,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -3444,18 +3444,18 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -3476,18 +3476,18 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3496,30 +3496,30 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -3528,16 +3528,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -3545,13 +3545,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -3572,12 +3572,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3592,39 +3592,39 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -3636,18 +3636,18 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3682,13 +3682,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4134,10 +4134,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -4161,12 +4161,12 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4175,22 +4175,22 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4198,16 +4198,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -4216,13 +4216,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -4230,22 +4230,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -4289,12 +4289,12 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4306,19 +4306,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -4390,13 +4390,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -4405,16 +4405,16 @@
         <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -4518,13 +4518,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -4545,18 +4545,18 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -4565,16 +4565,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -4582,13 +4582,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -4597,16 +4597,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -4614,13 +4614,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -4673,12 +4673,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4815,13 +4815,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -4865,12 +4865,12 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
